--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr3</t>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H2">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J2">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1564306666666667</v>
+        <v>0.04090066666666667</v>
       </c>
       <c r="N2">
-        <v>0.469292</v>
+        <v>0.122702</v>
       </c>
       <c r="O2">
-        <v>0.2910888571171601</v>
+        <v>0.09164231251535751</v>
       </c>
       <c r="P2">
-        <v>0.2910888571171601</v>
+        <v>0.0916423125153575</v>
       </c>
       <c r="Q2">
-        <v>0.03147145152977778</v>
+        <v>0.008497876979111113</v>
       </c>
       <c r="R2">
-        <v>0.283243063768</v>
+        <v>0.076480892812</v>
       </c>
       <c r="S2">
-        <v>0.1187836069095941</v>
+        <v>0.03031024538189597</v>
       </c>
       <c r="T2">
-        <v>0.1187836069095941</v>
+        <v>0.03031024538189596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2011846666666667</v>
+        <v>0.2077686666666667</v>
       </c>
       <c r="H3">
-        <v>0.603554</v>
+        <v>0.623306</v>
       </c>
       <c r="I3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J3">
-        <v>0.408066485560404</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,36 +623,36 @@
         <v>1.142903</v>
       </c>
       <c r="O3">
-        <v>0.7089111428828399</v>
+        <v>0.8535987506376395</v>
       </c>
       <c r="P3">
-        <v>0.7089111428828399</v>
+        <v>0.8535987506376393</v>
       </c>
       <c r="Q3">
-        <v>0.07664485302911112</v>
+        <v>0.07915314414644445</v>
       </c>
       <c r="R3">
-        <v>0.6898036772620001</v>
+        <v>0.7123782973180001</v>
       </c>
       <c r="S3">
-        <v>0.2892828786508099</v>
+        <v>0.2823236000856143</v>
       </c>
       <c r="T3">
-        <v>0.2892828786508099</v>
+        <v>0.2823236000856142</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,40 +667,40 @@
         <v>0.623306</v>
       </c>
       <c r="I4">
-        <v>0.4214209314306809</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="J4">
-        <v>0.4214209314306809</v>
+        <v>0.3307450952508051</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1564306666666667</v>
+        <v>0.02443933333333333</v>
       </c>
       <c r="N4">
-        <v>0.469292</v>
+        <v>0.07331799999999999</v>
       </c>
       <c r="O4">
-        <v>0.2910888571171601</v>
+        <v>0.05475893684700315</v>
       </c>
       <c r="P4">
-        <v>0.2910888571171601</v>
+        <v>0.05475893684700314</v>
       </c>
       <c r="Q4">
-        <v>0.03250139103911111</v>
+        <v>0.005077727700888888</v>
       </c>
       <c r="R4">
-        <v>0.292512519352</v>
+        <v>0.045699549308</v>
       </c>
       <c r="S4">
-        <v>0.122670937295406</v>
+        <v>0.01811124978329488</v>
       </c>
       <c r="T4">
-        <v>0.122670937295406</v>
+        <v>0.01811124978329488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,93 +708,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.420415</v>
+      </c>
+      <c r="H5">
+        <v>1.261245</v>
+      </c>
+      <c r="I5">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="J5">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2077686666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.623306</v>
-      </c>
-      <c r="I5">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="J5">
-        <v>0.4214209314306809</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.3809676666666666</v>
+        <v>0.04090066666666667</v>
       </c>
       <c r="N5">
-        <v>1.142903</v>
+        <v>0.122702</v>
       </c>
       <c r="O5">
-        <v>0.7089111428828399</v>
+        <v>0.09164231251535751</v>
       </c>
       <c r="P5">
-        <v>0.7089111428828399</v>
+        <v>0.0916423125153575</v>
       </c>
       <c r="Q5">
-        <v>0.07915314414644445</v>
+        <v>0.01719525377666667</v>
       </c>
       <c r="R5">
-        <v>0.7123782973180001</v>
+        <v>0.15475728399</v>
       </c>
       <c r="S5">
-        <v>0.2987499941352749</v>
+        <v>0.06133206713346153</v>
       </c>
       <c r="T5">
-        <v>0.2987499941352749</v>
+        <v>0.06133206713346152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08406599999999999</v>
+        <v>0.420415</v>
       </c>
       <c r="H6">
-        <v>0.252198</v>
+        <v>1.261245</v>
       </c>
       <c r="I6">
-        <v>0.1705125830089151</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="J6">
-        <v>0.1705125830089151</v>
+        <v>0.6692549047491948</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,90 +803,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1564306666666667</v>
+        <v>0.3809676666666666</v>
       </c>
       <c r="N6">
-        <v>0.469292</v>
+        <v>1.142903</v>
       </c>
       <c r="O6">
-        <v>0.2910888571171601</v>
+        <v>0.8535987506376395</v>
       </c>
       <c r="P6">
-        <v>0.2910888571171601</v>
+        <v>0.8535987506376393</v>
       </c>
       <c r="Q6">
-        <v>0.013150500424</v>
+        <v>0.1601645215816667</v>
       </c>
       <c r="R6">
-        <v>0.118354503816</v>
+        <v>1.441480694235</v>
       </c>
       <c r="S6">
-        <v>0.04963431291215999</v>
+        <v>0.571275150552025</v>
       </c>
       <c r="T6">
-        <v>0.04963431291216</v>
+        <v>0.571275150552025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.420415</v>
+      </c>
+      <c r="H7">
+        <v>1.261245</v>
+      </c>
+      <c r="I7">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="J7">
+        <v>0.6692549047491948</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.08406599999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.252198</v>
-      </c>
-      <c r="I7">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="J7">
-        <v>0.1705125830089151</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.3809676666666666</v>
+        <v>0.02443933333333333</v>
       </c>
       <c r="N7">
-        <v>1.142903</v>
+        <v>0.07331799999999999</v>
       </c>
       <c r="O7">
-        <v>0.7089111428828399</v>
+        <v>0.05475893684700315</v>
       </c>
       <c r="P7">
-        <v>0.7089111428828399</v>
+        <v>0.05475893684700314</v>
       </c>
       <c r="Q7">
-        <v>0.032026427866</v>
+        <v>0.01027466232333333</v>
       </c>
       <c r="R7">
-        <v>0.288237850794</v>
+        <v>0.09247196090999998</v>
       </c>
       <c r="S7">
-        <v>0.1208782700967551</v>
+        <v>0.03664768706370827</v>
       </c>
       <c r="T7">
-        <v>0.1208782700967551</v>
+        <v>0.03664768706370826</v>
       </c>
     </row>
   </sheetData>
